--- a/数据表/Multilingual.xlsx
+++ b/数据表/Multilingual.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>//注释</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>生命百分比</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>兵源</t>
   </si>
 </sst>
 </file>
@@ -704,11 +716,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1193,6 +1208,38 @@
       </c>
       <c r="B13" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1000011</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1000012</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1000013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1000014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/Multilingual.xlsx
+++ b/数据表/Multilingual.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>//注释</t>
   </si>
@@ -101,6 +101,39 @@
   </si>
   <si>
     <t>兵源</t>
+  </si>
+  <si>
+    <t>角色%d级解锁</t>
+  </si>
+  <si>
+    <t>刀盾兵</t>
+  </si>
+  <si>
+    <t>巨盾兵</t>
+  </si>
+  <si>
+    <t>短弓手</t>
+  </si>
+  <si>
+    <t>长弓手</t>
+  </si>
+  <si>
+    <t>轻骑兵</t>
+  </si>
+  <si>
+    <t>重骑兵</t>
+  </si>
+  <si>
+    <t>冲车</t>
+  </si>
+  <si>
+    <t>投石车</t>
+  </si>
+  <si>
+    <t>军医</t>
+  </si>
+  <si>
+    <t>巫医</t>
   </si>
 </sst>
 </file>
@@ -1074,16 +1107,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
   </cols>
@@ -1240,6 +1273,94 @@
       </c>
       <c r="B17" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1000015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1000016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1000017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1000018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1000019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1000020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1000021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1000022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1000023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1000024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1000025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
